--- a/Team-Data/2008-09/12-8-2008-09.xlsx
+++ b/Team-Data/2008-09/12-8-2008-09.xlsx
@@ -811,13 +811,13 @@
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -862,7 +862,7 @@
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>13</v>
@@ -880,10 +880,10 @@
         <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.905</v>
+        <v>0.909</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.358</v>
+        <v>0.352</v>
       </c>
       <c r="O3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43.5</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -1023,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>22</v>
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1053,19 +1053,19 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1181,13 +1181,13 @@
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1205,13 +1205,13 @@
         <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>22</v>
@@ -1229,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
         <v>10</v>
@@ -1279,106 +1279,106 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.421</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.434</v>
+        <v>0.437</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4</v>
+        <v>20.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.805</v>
+        <v>0.8</v>
       </c>
       <c r="R5" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="V5" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W5" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>18</v>
@@ -1387,19 +1387,19 @@
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
@@ -1408,28 +1408,28 @@
         <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC5" t="n">
         <v>20</v>
@@ -1461,124 +1461,124 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.895</v>
+        <v>0.85</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.5</v>
+        <v>38.1</v>
       </c>
       <c r="J6" t="n">
-        <v>79.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.485</v>
+        <v>0.483</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="P6" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.777</v>
+        <v>0.774</v>
       </c>
       <c r="R6" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T6" t="n">
         <v>42.8</v>
       </c>
       <c r="U6" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.5</v>
+        <v>103.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
         <v>13</v>
@@ -1590,10 +1590,10 @@
         <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1605,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>3.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1739,7 +1739,7 @@
         <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
         <v>19</v>
@@ -1781,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>13</v>
@@ -1903,13 +1903,13 @@
         <v>4.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
         <v>6</v>
@@ -1918,7 +1918,7 @@
         <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1933,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>26</v>
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -1978,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -2085,7 +2085,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
@@ -2103,7 +2103,7 @@
         <v>22</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
         <v>16</v>
@@ -2121,7 +2121,7 @@
         <v>16</v>
       </c>
       <c r="AP9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
         <v>16</v>
@@ -2142,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2282,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
@@ -2455,34 +2455,34 @@
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
         <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP11" t="n">
         <v>12</v>
@@ -2497,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>22</v>
@@ -2646,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="AI12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ12" t="n">
         <v>3</v>
@@ -2655,13 +2655,13 @@
         <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>27</v>
@@ -2676,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2688,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX12" t="n">
         <v>7</v>
@@ -2700,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>11</v>
@@ -2825,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
@@ -2917,64 +2917,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.889</v>
+        <v>0.895</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>6.6</v>
       </c>
       <c r="M14" t="n">
-        <v>17.8</v>
+        <v>17.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.372</v>
+        <v>0.382</v>
       </c>
       <c r="O14" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>28.5</v>
+        <v>27.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="S14" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
         <v>14.6</v>
       </c>
       <c r="W14" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
         <v>5.7</v>
@@ -2983,28 +2983,28 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -3025,28 +3025,28 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>14</v>
@@ -3058,10 +3058,10 @@
         <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
         <v>7</v>
@@ -3189,10 +3189,10 @@
         <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ15" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3231,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW15" t="n">
         <v>12</v>
@@ -3240,13 +3240,13 @@
         <v>26</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
         <v>27</v>
@@ -3371,7 +3371,7 @@
         <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>10</v>
@@ -3383,7 +3383,7 @@
         <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM16" t="n">
         <v>4</v>
@@ -3401,7 +3401,7 @@
         <v>24</v>
       </c>
       <c r="AR16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS16" t="n">
         <v>28</v>
@@ -3428,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
         <v>13</v>
@@ -3463,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.429</v>
+        <v>0.409</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
       </c>
       <c r="I17" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.429</v>
+        <v>0.431</v>
       </c>
       <c r="L17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M17" t="n">
         <v>14.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
         <v>0.764</v>
@@ -3508,55 +3508,55 @@
         <v>13.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.8</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>44.3</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
         <v>20.6</v>
       </c>
       <c r="V17" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W17" t="n">
         <v>6.4</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>5.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AB17" t="n">
         <v>95.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.6</v>
+        <v>-2.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>4</v>
       </c>
       <c r="AI17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -3565,7 +3565,7 @@
         <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
@@ -3574,13 +3574,13 @@
         <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>2</v>
@@ -3598,7 +3598,7 @@
         <v>29</v>
       </c>
       <c r="AW17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX17" t="n">
         <v>27</v>
@@ -3610,7 +3610,7 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
@@ -3723,7 +3723,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3738,16 +3738,16 @@
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
@@ -3762,10 +3762,10 @@
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>26</v>
@@ -3905,7 +3905,7 @@
         <v>-1</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>11</v>
@@ -3920,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3938,13 +3938,13 @@
         <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>17</v>
@@ -3959,7 +3959,7 @@
         <v>26</v>
       </c>
       <c r="AV19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -4123,7 +4123,7 @@
         <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4156,13 +4156,13 @@
         <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4281,10 +4281,10 @@
         <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4335,13 +4335,13 @@
         <v>18</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA21" t="n">
         <v>30</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4451,7 +4451,7 @@
         <v>-10.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4481,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="n">
         <v>15</v>
@@ -4490,7 +4490,7 @@
         <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR22" t="n">
         <v>15</v>
@@ -4505,7 +4505,7 @@
         <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>14</v>
@@ -4520,7 +4520,7 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
@@ -4645,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
@@ -4666,7 +4666,7 @@
         <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4699,16 +4699,16 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
         <v>12</v>
       </c>
       <c r="BC23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4815,7 +4815,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4824,19 +4824,19 @@
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4848,7 +4848,7 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
@@ -4875,13 +4875,13 @@
         <v>15</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY24" t="n">
         <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4997,7 +4997,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -5027,10 +5027,10 @@
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
@@ -5057,10 +5057,10 @@
         <v>24</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ25" t="n">
         <v>10</v>
@@ -5069,7 +5069,7 @@
         <v>9</v>
       </c>
       <c r="BB25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5101,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.714</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>78.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
         <v>0.414</v>
       </c>
       <c r="O26" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="P26" t="n">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.775</v>
+        <v>0.769</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
         <v>21</v>
@@ -5161,46 +5161,46 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.7</v>
+        <v>97.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>20</v>
       </c>
-      <c r="AI26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>21</v>
-      </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
@@ -5212,16 +5212,16 @@
         <v>1</v>
       </c>
       <c r="AO26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
@@ -5233,10 +5233,10 @@
         <v>12</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
         <v>10</v>
@@ -5245,16 +5245,16 @@
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,7 +5361,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5382,10 +5382,10 @@
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
@@ -5397,7 +5397,7 @@
         <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
@@ -5430,7 +5430,7 @@
         <v>27</v>
       </c>
       <c r="BA27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB27" t="n">
         <v>20</v>
@@ -5543,7 +5543,7 @@
         <v>2.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5558,7 +5558,7 @@
         <v>5</v>
       </c>
       <c r="AI28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ28" t="n">
         <v>26</v>
@@ -5725,10 +5725,10 @@
         <v>-4.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>17</v>
@@ -5743,7 +5743,7 @@
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
         <v>17</v>
@@ -5776,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV29" t="n">
         <v>12</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
         <v>9</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
@@ -5922,10 +5922,10 @@
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>3</v>
@@ -5937,19 +5937,19 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
         <v>11</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
         <v>19</v>
@@ -5979,7 +5979,7 @@
         <v>6</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -6089,7 +6089,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6140,10 +6140,10 @@
         <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6155,7 +6155,7 @@
         <v>16</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA31" t="n">
         <v>25</v>

--- a/Team-Data/2008-09/12-8-2008-09.xlsx
+++ b/Team-Data/2008-09/12-8-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -777,16 +844,16 @@
         <v>3</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="n">
         <v>16</v>
@@ -795,7 +862,7 @@
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>13</v>
@@ -807,19 +874,19 @@
         <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.905</v>
+        <v>0.909</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.358</v>
+        <v>0.352</v>
       </c>
       <c r="O3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43.5</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -956,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -965,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>22</v>
@@ -974,31 +1041,31 @@
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>0.333</v>
+        <v>0.35</v>
       </c>
       <c r="H4" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="J4" t="n">
-        <v>74.59999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L4" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.348</v>
       </c>
       <c r="O4" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P4" t="n">
         <v>26</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.751</v>
+        <v>0.754</v>
       </c>
       <c r="R4" t="n">
         <v>10.7</v>
@@ -1081,46 +1148,46 @@
         <v>37.5</v>
       </c>
       <c r="U4" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="V4" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>-3.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,28 +1196,28 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL4" t="n">
         <v>23</v>
       </c>
-      <c r="AL4" t="n">
-        <v>20</v>
-      </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>30</v>
@@ -1162,19 +1229,19 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -1212,106 +1279,106 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.421</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.434</v>
+        <v>0.437</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4</v>
+        <v>20.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.805</v>
+        <v>0.8</v>
       </c>
       <c r="R5" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="V5" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W5" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>18</v>
@@ -1320,19 +1387,19 @@
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
@@ -1341,28 +1408,28 @@
         <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -1394,127 +1461,127 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.895</v>
+        <v>0.85</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.5</v>
+        <v>38.1</v>
       </c>
       <c r="J6" t="n">
-        <v>79.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.485</v>
+        <v>0.483</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="P6" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.777</v>
+        <v>0.774</v>
       </c>
       <c r="R6" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T6" t="n">
         <v>42.8</v>
       </c>
       <c r="U6" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.5</v>
+        <v>103.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO6" t="n">
         <v>7</v>
       </c>
-      <c r="AN6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8</v>
-      </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS6" t="n">
         <v>9</v>
@@ -1523,13 +1590,13 @@
         <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
         <v>4</v>
@@ -1538,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>3.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1672,10 +1739,10 @@
         <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
@@ -1684,10 +1751,10 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP7" t="n">
         <v>22</v>
@@ -1705,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1714,13 +1781,13 @@
         <v>13</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1903,22 @@
         <v>4.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
         <v>6</v>
       </c>
       <c r="AH8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI8" t="n">
         <v>14</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>26</v>
@@ -1890,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
@@ -1899,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -1911,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -2051,10 +2118,10 @@
         <v>13</v>
       </c>
       <c r="AO9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP9" t="n">
         <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>14</v>
       </c>
       <c r="AQ9" t="n">
         <v>16</v>
@@ -2063,19 +2130,19 @@
         <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT9" t="n">
         <v>22</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -2122,85 +2189,85 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>0.286</v>
+        <v>0.25</v>
       </c>
       <c r="H10" t="n">
         <v>48.7</v>
       </c>
       <c r="I10" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.448</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M10" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="N10" t="n">
         <v>0.31</v>
       </c>
       <c r="O10" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="P10" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R10" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="T10" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U10" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="W10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>6.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA10" t="n">
         <v>25</v>
       </c>
       <c r="AB10" t="n">
-        <v>105.7</v>
+        <v>105.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5.8</v>
+        <v>-6.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,22 +2279,22 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -2239,13 +2306,13 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR10" t="n">
         <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2254,10 +2321,10 @@
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -2304,106 +2371,106 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.619</v>
+        <v>0.65</v>
       </c>
       <c r="H11" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I11" t="n">
         <v>34.2</v>
       </c>
       <c r="J11" t="n">
-        <v>79</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="O11" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="P11" t="n">
         <v>25.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.819</v>
+        <v>0.824</v>
       </c>
       <c r="R11" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T11" t="n">
-        <v>42.9</v>
+        <v>43.4</v>
       </c>
       <c r="U11" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="V11" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W11" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AB11" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>10</v>
@@ -2412,52 +2479,52 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP11" t="n">
         <v>12</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW11" t="n">
         <v>21</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>23</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB11" t="n">
         <v>21</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>22</v>
@@ -2579,28 +2646,28 @@
         <v>2</v>
       </c>
       <c r="AI12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ12" t="n">
         <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>27</v>
       </c>
       <c r="AP12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ12" t="n">
         <v>7</v>
@@ -2609,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX12" t="n">
         <v>7</v>
@@ -2633,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H13" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J13" t="n">
-        <v>83.40000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="L13" t="n">
         <v>5.3</v>
       </c>
       <c r="M13" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N13" t="n">
-        <v>0.313</v>
+        <v>0.312</v>
       </c>
       <c r="O13" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="P13" t="n">
-        <v>21.1</v>
+        <v>21.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="R13" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="S13" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T13" t="n">
-        <v>41.1</v>
+        <v>40.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
         <v>7.4</v>
@@ -2731,43 +2798,43 @@
         <v>6.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Z13" t="n">
         <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="AC13" t="n">
         <v>-6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="n">
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2782,19 +2849,19 @@
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU13" t="n">
         <v>21</v>
@@ -2809,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -2850,64 +2917,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.889</v>
+        <v>0.895</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>6.6</v>
       </c>
       <c r="M14" t="n">
-        <v>17.8</v>
+        <v>17.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.372</v>
+        <v>0.382</v>
       </c>
       <c r="O14" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>28.5</v>
+        <v>27.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="S14" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
         <v>14.6</v>
       </c>
       <c r="W14" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
         <v>5.7</v>
@@ -2916,28 +2983,28 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2946,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2958,28 +3025,28 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>14</v>
@@ -2991,10 +3058,10 @@
         <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -3032,85 +3099,85 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.286</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J15" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.333</v>
+        <v>0.327</v>
       </c>
       <c r="O15" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="Q15" t="n">
         <v>0.754</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T15" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="U15" t="n">
         <v>16.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="W15" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X15" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>94</v>
+        <v>93.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3122,31 +3189,31 @@
         <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ15" t="n">
         <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3155,7 +3222,7 @@
         <v>25</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
         <v>27</v>
@@ -3164,19 +3231,19 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW15" t="n">
         <v>12</v>
       </c>
       <c r="AX15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>25</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>26</v>
       </c>
       <c r="BA15" t="n">
         <v>14</v>
@@ -3185,7 +3252,7 @@
         <v>27</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -3214,127 +3281,127 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
         <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>0.571</v>
+        <v>0.55</v>
       </c>
       <c r="H16" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81.90000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M16" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="O16" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="AA16" t="n">
         <v>20.3</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="O16" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.749</v>
-      </c>
-      <c r="R16" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="T16" t="n">
-        <v>40</v>
-      </c>
-      <c r="U16" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="V16" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="W16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="X16" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>20.7</v>
       </c>
       <c r="AB16" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
         <v>14</v>
       </c>
-      <c r="AI16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>15</v>
-      </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AM16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AN16" t="n">
         <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS16" t="n">
         <v>28</v>
@@ -3343,7 +3410,7 @@
         <v>24</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>1</v>
@@ -3355,19 +3422,19 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
         <v>13</v>
       </c>
       <c r="BC16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.429</v>
+        <v>0.409</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
       </c>
       <c r="I17" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.429</v>
+        <v>0.431</v>
       </c>
       <c r="L17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M17" t="n">
         <v>14.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
         <v>0.764</v>
@@ -3441,55 +3508,55 @@
         <v>13.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.8</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>44.3</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
         <v>20.6</v>
       </c>
       <c r="V17" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W17" t="n">
         <v>6.4</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>5.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AB17" t="n">
         <v>95.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.6</v>
+        <v>-2.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -3498,7 +3565,7 @@
         <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
@@ -3507,13 +3574,13 @@
         <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>2</v>
@@ -3525,13 +3592,13 @@
         <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV17" t="n">
         <v>29</v>
       </c>
       <c r="AW17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX17" t="n">
         <v>27</v>
@@ -3543,7 +3610,7 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3671,19 +3738,19 @@
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
         <v>25</v>
@@ -3692,10 +3759,10 @@
         <v>20</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
@@ -3704,7 +3771,7 @@
         <v>26</v>
       </c>
       <c r="AT18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
         <v>6</v>
@@ -3716,22 +3783,22 @@
         <v>29</v>
       </c>
       <c r="AX18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA18" t="n">
         <v>21</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>24</v>
       </c>
       <c r="BC18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-1</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -3853,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3865,25 +3932,25 @@
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
         <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>17</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>20</v>
@@ -3892,7 +3959,7 @@
         <v>26</v>
       </c>
       <c r="AV19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3901,13 +3968,13 @@
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>29</v>
       </c>
       <c r="BA19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -4023,13 +4090,13 @@
         <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4056,10 +4123,10 @@
         <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>27</v>
@@ -4074,28 +4141,28 @@
         <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY20" t="n">
         <v>4</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4214,10 +4281,10 @@
         <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4250,13 +4317,13 @@
         <v>7</v>
       </c>
       <c r="AT21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>5</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
         <v>18</v>
@@ -4268,13 +4335,13 @@
         <v>18</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA21" t="n">
         <v>30</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.091</v>
+        <v>0.095</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
       <c r="J22" t="n">
-        <v>82.2</v>
+        <v>81.5</v>
       </c>
       <c r="K22" t="n">
         <v>0.425</v>
       </c>
       <c r="L22" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M22" t="n">
-        <v>9.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>0.378</v>
+        <v>0.381</v>
       </c>
       <c r="O22" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="P22" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.751</v>
+        <v>0.757</v>
       </c>
       <c r="R22" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="S22" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T22" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="U22" t="n">
-        <v>18.9</v>
+        <v>18.5</v>
       </c>
       <c r="V22" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
         <v>7.5</v>
       </c>
       <c r="X22" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Y22" t="n">
         <v>6</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AA22" t="n">
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="AC22" t="n">
         <v>-10.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4402,7 +4469,7 @@
         <v>28</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
         <v>30</v>
@@ -4414,46 +4481,46 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
         <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AR22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS22" t="n">
         <v>18</v>
       </c>
       <c r="AT22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>14</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AY22" t="n">
         <v>27</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.762</v>
+        <v>0.75</v>
       </c>
       <c r="H23" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="J23" t="n">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="K23" t="n">
         <v>0.452</v>
@@ -4518,58 +4585,58 @@
         <v>24.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O23" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P23" t="n">
         <v>28.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.708</v>
+        <v>0.712</v>
       </c>
       <c r="R23" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
         <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
         <v>7</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
         <v>3</v>
@@ -4599,7 +4666,7 @@
         <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4611,7 +4678,7 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
         <v>10</v>
@@ -4620,7 +4687,7 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>17</v>
@@ -4632,16 +4699,16 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA23" t="n">
         <v>4</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>5</v>
       </c>
       <c r="BB23" t="n">
         <v>12</v>
       </c>
       <c r="BC23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4757,19 +4824,19 @@
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
@@ -4802,19 +4869,19 @@
         <v>22</v>
       </c>
       <c r="AV24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW24" t="n">
         <v>15</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY24" t="n">
         <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4942,10 +5009,10 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>29</v>
@@ -4957,13 +5024,13 @@
         <v>14</v>
       </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
@@ -4990,7 +5057,7 @@
         <v>24</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
         <v>10</v>
@@ -5002,7 +5069,7 @@
         <v>9</v>
       </c>
       <c r="BB25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.714</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>78.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
         <v>0.414</v>
       </c>
       <c r="O26" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="P26" t="n">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.775</v>
+        <v>0.769</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
         <v>21</v>
@@ -5094,79 +5161,79 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.7</v>
+        <v>97.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>1</v>
       </c>
       <c r="AO26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>12</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>22</v>
@@ -5178,16 +5245,16 @@
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>28</v>
@@ -5315,10 +5382,10 @@
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
@@ -5327,10 +5394,10 @@
         <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
@@ -5345,7 +5412,7 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV27" t="n">
         <v>28</v>
@@ -5357,13 +5424,13 @@
         <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ27" t="n">
         <v>27</v>
       </c>
       <c r="BA27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>2.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
@@ -5491,7 +5558,7 @@
         <v>5</v>
       </c>
       <c r="AI28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ28" t="n">
         <v>26</v>
@@ -5503,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>5</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>-4.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>17</v>
@@ -5676,7 +5743,7 @@
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
         <v>17</v>
@@ -5709,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV29" t="n">
         <v>12</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
         <v>9</v>
@@ -5727,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5922,7 @@
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ30" t="n">
         <v>17</v>
@@ -5864,28 +5931,28 @@
         <v>3</v>
       </c>
       <c r="AL30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
         <v>11</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5906,16 +5973,16 @@
         <v>19</v>
       </c>
       <c r="AZ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA30" t="n">
         <v>6</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6043,52 +6110,52 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>19</v>
       </c>
       <c r="AM31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
         <v>26</v>
       </c>
       <c r="AO31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>23</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>11</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
         <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-8-2008-09</t>
+          <t>2008-12-08</t>
         </is>
       </c>
     </row>
